--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2225286224746869</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.59991870479197</v>
+        <v>-1.597974791177163</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1518780061640242</v>
+        <v>0.1538675663333483</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2452659063695949</v>
+        <v>-0.2457632964119259</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2440070520216013</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532343702885849</v>
+        <v>-1.529577364280163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1004658196049799</v>
+        <v>0.1018729926994227</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2486122710214801</v>
+        <v>-0.2490718846049</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2711224130280026</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.487619523573211</v>
+        <v>-1.483687623808202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.096200227786255</v>
+        <v>0.09743740681559736</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2585254434474319</v>
+        <v>-0.2590763501398871</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2872021674639444</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.557058164118952</v>
+        <v>-1.553128625382625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12321669198426</v>
+        <v>0.1243830401531438</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354833775307111</v>
+        <v>-0.2355668005441401</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2892194041742721</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.591440250795084</v>
+        <v>-1.588137171669034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1082147157391432</v>
+        <v>0.1088348792729356</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2612721068141016</v>
+        <v>-0.2614845993954772</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2820516337796204</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.478201380160909</v>
+        <v>-1.475134403903055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1213467572681548</v>
+        <v>0.1215923042510777</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530950774789445</v>
+        <v>-0.2532729416396515</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2737640682951966</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.263472904623508</v>
+        <v>-1.261230714385216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.158027698870946</v>
+        <v>0.1576042877273161</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2591928275548634</v>
+        <v>-0.2596146646793719</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2669431011585648</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006111334176118</v>
+        <v>-1.00529048320436</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1797822171464428</v>
+        <v>0.1789621531842452</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2565059769148031</v>
+        <v>-0.2571497507354151</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2605000209347336</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5934357879630644</v>
+        <v>-0.5932862561465408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1687105666472138</v>
+        <v>0.1675945870902116</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1648492694623428</v>
+        <v>-0.1650523179289906</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2503162577718233</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2203287214308281</v>
+        <v>-0.221265262808002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.138564952436063</v>
+        <v>0.1374473988599395</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1290513525866012</v>
+        <v>-0.1294983740170506</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2304234917772334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2408872134544568</v>
+        <v>0.2394580040923158</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1035556191400931</v>
+        <v>0.1033336824439897</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03881913243891798</v>
+        <v>-0.03902060688644447</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1927613370990643</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7655392669664021</v>
+        <v>0.7632238848389687</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005420020704038693</v>
+        <v>-0.004743192481879397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05500185130533081</v>
+        <v>0.0547610263797718</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1318346685452996</v>
       </c>
       <c r="E14" t="n">
-        <v>1.31040330001497</v>
+        <v>1.307508678850898</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2297633920439044</v>
+        <v>-0.2295902499405613</v>
       </c>
       <c r="G14" t="n">
-        <v>0.159011460821759</v>
+        <v>0.1587643398197147</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.04698704464419065</v>
       </c>
       <c r="E15" t="n">
-        <v>1.871860642640289</v>
+        <v>1.868797601430238</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4414233173043292</v>
+        <v>-0.441113235537433</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2926425361819447</v>
+        <v>0.2924316176196904</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.05870184571829453</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343701206594353</v>
+        <v>2.339887358263442</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6659303866328102</v>
+        <v>-0.6650426398483966</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4369612013757622</v>
+        <v>0.4369360170698214</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1796291462118058</v>
       </c>
       <c r="E17" t="n">
-        <v>2.798838279633175</v>
+        <v>2.794335010927134</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8792005334543256</v>
+        <v>-0.8774974447650783</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5560278778065527</v>
+        <v>0.555898808238606</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3044325865260504</v>
       </c>
       <c r="E18" t="n">
-        <v>3.221871658673948</v>
+        <v>3.217122842984984</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207331577614516</v>
+        <v>-1.205756771483655</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6774524348810517</v>
+        <v>0.6771990178025223</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.426448357455088</v>
       </c>
       <c r="E19" t="n">
-        <v>3.596179701795736</v>
+        <v>3.59142773806853</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.506401506738132</v>
+        <v>-1.504495369582237</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8384714429518695</v>
+        <v>0.8383187630971033</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5471115577400604</v>
       </c>
       <c r="E20" t="n">
-        <v>3.720738130940745</v>
+        <v>3.714220117759439</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842277511984683</v>
+        <v>-1.840667290423592</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014726956116878</v>
+        <v>1.014827693340641</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6701074960046167</v>
       </c>
       <c r="E21" t="n">
-        <v>3.970668757116475</v>
+        <v>3.963917789105216</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078924203786195</v>
+        <v>-2.077321852320711</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182580355212383</v>
+        <v>1.182936083533797</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7982318082892159</v>
       </c>
       <c r="E22" t="n">
-        <v>4.175670581493798</v>
+        <v>4.169007758553332</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374738274357401</v>
+        <v>-2.373861545706836</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322841199111487</v>
+        <v>1.323204797528508</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9310981875008172</v>
       </c>
       <c r="E23" t="n">
-        <v>4.400912717751926</v>
+        <v>4.394731544662578</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.506693806362962</v>
+        <v>-2.50542121190339</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494015778552937</v>
+        <v>1.494868896916682</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.066482367797419</v>
       </c>
       <c r="E24" t="n">
-        <v>4.528669553751418</v>
+        <v>4.522472640470857</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621421699085887</v>
+        <v>-2.619940547092743</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597949835151543</v>
+        <v>1.598906838777294</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.198615298402365</v>
       </c>
       <c r="E25" t="n">
-        <v>4.669824440511421</v>
+        <v>4.664219358420469</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817661746024489</v>
+        <v>-2.817058896701031</v>
       </c>
       <c r="G25" t="n">
-        <v>1.661143554833523</v>
+        <v>1.662114724631366</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.317958987178226</v>
       </c>
       <c r="E26" t="n">
-        <v>4.783304923080715</v>
+        <v>4.778489998588657</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907631104978916</v>
+        <v>-2.907142372041752</v>
       </c>
       <c r="G26" t="n">
-        <v>1.704296863063103</v>
+        <v>1.705466359270229</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.416493137818767</v>
       </c>
       <c r="E27" t="n">
-        <v>4.893734956592929</v>
+        <v>4.890306742946736</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980350788383007</v>
+        <v>-2.980332687163112</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754737879824305</v>
+        <v>1.756237920046904</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.488775549191709</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893270620952145</v>
+        <v>4.890379147826316</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069617347799773</v>
+        <v>-3.070315425280069</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795871721521255</v>
+        <v>1.797881743939156</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.534534632695794</v>
       </c>
       <c r="E29" t="n">
-        <v>4.90225512209653</v>
+        <v>4.900238803602144</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083443531761278</v>
+        <v>-3.084658674522922</v>
       </c>
       <c r="G29" t="n">
-        <v>1.727054031518868</v>
+        <v>1.728755546188994</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.55542431662993</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843934565614097</v>
+        <v>4.842030002477323</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073261202065583</v>
+        <v>-3.074701429561574</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690881498092257</v>
+        <v>1.69260347501096</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.553918857478165</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718648939635047</v>
+        <v>4.717137881278599</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061956596736402</v>
+        <v>-3.064159436496662</v>
       </c>
       <c r="G31" t="n">
-        <v>1.632135956447073</v>
+        <v>1.633895709824687</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.532846531964768</v>
       </c>
       <c r="E32" t="n">
-        <v>4.6383361879898</v>
+        <v>4.637673525939733</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.023134202119081</v>
+        <v>-3.025566061661491</v>
       </c>
       <c r="G32" t="n">
-        <v>1.594583008251081</v>
+        <v>1.596435628756852</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.494531288553186</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560411223351568</v>
+        <v>4.560916483489505</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.954056798961679</v>
+        <v>-2.956591756756534</v>
       </c>
       <c r="G33" t="n">
-        <v>1.565377083455347</v>
+        <v>1.56776487046236</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.440537879581497</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357886905071171</v>
+        <v>4.358263095641163</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.881941538900167</v>
+        <v>-2.884834586045117</v>
       </c>
       <c r="G34" t="n">
-        <v>1.51502735980318</v>
+        <v>1.517621343315084</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.373961045790889</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133088642205251</v>
+        <v>4.133582884209338</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.850331299896646</v>
+        <v>-2.85367609052941</v>
       </c>
       <c r="G35" t="n">
-        <v>1.393882978132273</v>
+        <v>1.396121233322762</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.298778594182705</v>
       </c>
       <c r="E36" t="n">
-        <v>3.982022157038417</v>
+        <v>3.983149154729268</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.825147780965395</v>
+        <v>-2.828779043078236</v>
       </c>
       <c r="G36" t="n">
-        <v>1.367515009812244</v>
+        <v>1.370156213897786</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.21887080869706</v>
       </c>
       <c r="E37" t="n">
-        <v>3.786122885239576</v>
+        <v>3.787611907328326</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.761360656074685</v>
+        <v>-2.764943123594766</v>
       </c>
       <c r="G37" t="n">
-        <v>1.280388329390887</v>
+        <v>1.282758802187566</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.1373189019338</v>
       </c>
       <c r="E38" t="n">
-        <v>3.716445780796958</v>
+        <v>3.718983099620495</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.730178550272158</v>
+        <v>-2.734184428935868</v>
       </c>
       <c r="G38" t="n">
-        <v>1.23729955594528</v>
+        <v>1.240093439885589</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.056771335117884</v>
       </c>
       <c r="E39" t="n">
-        <v>3.506309506045953</v>
+        <v>3.509263939936634</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.747686364958386</v>
+        <v>-2.752195929740912</v>
       </c>
       <c r="G39" t="n">
-        <v>1.162081904195684</v>
+        <v>1.164923008709632</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9783201583146154</v>
       </c>
       <c r="E40" t="n">
-        <v>3.260488643795939</v>
+        <v>3.263635108019419</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.712995770534479</v>
+        <v>-2.717975180024714</v>
       </c>
       <c r="G40" t="n">
-        <v>1.097953217155652</v>
+        <v>1.100805339803449</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9009417326889791</v>
       </c>
       <c r="E41" t="n">
-        <v>3.088495574411413</v>
+        <v>3.091884437579573</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.652251224605243</v>
+        <v>-2.657223551009432</v>
       </c>
       <c r="G41" t="n">
-        <v>1.066011647127097</v>
+        <v>1.068978673170749</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8238099745729597</v>
       </c>
       <c r="E42" t="n">
-        <v>2.974588532660246</v>
+        <v>2.979019396486707</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.621368182435762</v>
+        <v>-2.626408978671728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9818740290170899</v>
+        <v>0.9846978193207033</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7467065920900473</v>
       </c>
       <c r="E43" t="n">
-        <v>2.841217170455075</v>
+        <v>2.8461847748019</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.604599369726986</v>
+        <v>-2.609988024188759</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9297708480637945</v>
+        <v>0.932563157984982</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6690891231043484</v>
       </c>
       <c r="E44" t="n">
-        <v>2.712566291594684</v>
+        <v>2.71836970009492</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.532835902939084</v>
+        <v>-2.537941233959023</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8656862335591583</v>
+        <v>0.8685446522834404</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5908380952621197</v>
       </c>
       <c r="E45" t="n">
-        <v>2.515955563153015</v>
+        <v>2.52168499275455</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.467430686391677</v>
+        <v>-2.47243291915917</v>
       </c>
       <c r="G45" t="n">
-        <v>0.835699595279259</v>
+        <v>0.8387468962980971</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5119613570372089</v>
       </c>
       <c r="E46" t="n">
-        <v>2.390079680003478</v>
+        <v>2.396268723188432</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.427902344198452</v>
+        <v>-2.433164290120961</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7723815280866961</v>
+        <v>0.7753690163789249</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4318338615140432</v>
       </c>
       <c r="E47" t="n">
-        <v>2.227009725017605</v>
+        <v>2.233242840737956</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.292724008042028</v>
+        <v>-2.297347689210849</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7160332175632529</v>
+        <v>0.718981355377449</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3500977477698293</v>
       </c>
       <c r="E48" t="n">
-        <v>2.139058258576687</v>
+        <v>2.145796634434975</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.251824695194151</v>
+        <v>-2.256768689254157</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6673283438928457</v>
+        <v>0.6703315723762874</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2674383481655114</v>
       </c>
       <c r="E49" t="n">
-        <v>1.985810182907731</v>
+        <v>1.992765773404758</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.199935580841353</v>
+        <v>-2.204931517532361</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5929102938568704</v>
+        <v>0.5959119483211909</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.184292753754295</v>
       </c>
       <c r="E50" t="n">
-        <v>1.892570012219242</v>
+        <v>1.899747539412373</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.152508023687881</v>
+        <v>-2.157512617484056</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5361983849164067</v>
+        <v>0.5390819879466295</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1012857839385741</v>
       </c>
       <c r="E51" t="n">
-        <v>1.768631746608026</v>
+        <v>1.775817143896763</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.102496714146794</v>
+        <v>-2.107627229472674</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4911578277603875</v>
+        <v>0.4939123612226637</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01974335845509537</v>
       </c>
       <c r="E52" t="n">
-        <v>1.65697712621944</v>
+        <v>1.664247520540728</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.984334311701191</v>
+        <v>-1.988591246414749</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4555739774851428</v>
+        <v>0.4583993418078776</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05952655365091098</v>
       </c>
       <c r="E53" t="n">
-        <v>1.613710488613127</v>
+        <v>1.621484569053231</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.924797038437992</v>
+        <v>-1.929110637839917</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3843307240168311</v>
+        <v>0.3868334144196992</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1356369186897859</v>
       </c>
       <c r="E54" t="n">
-        <v>1.570446999045056</v>
+        <v>1.578997070911961</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.914414808313893</v>
+        <v>-1.918989694889953</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3499872008091714</v>
+        <v>0.3524269304471875</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2081716330760559</v>
       </c>
       <c r="E55" t="n">
-        <v>1.515504287596934</v>
+        <v>1.524600544098931</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.849316525495139</v>
+        <v>-1.853500268319556</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3230651777584445</v>
+        <v>0.3255962005054959</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2760397418925388</v>
       </c>
       <c r="E56" t="n">
-        <v>1.457602420200767</v>
+        <v>1.466878114882592</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.78746701814275</v>
+        <v>-1.791196656450672</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2156131884237317</v>
+        <v>0.2174075702220145</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3392034448882262</v>
       </c>
       <c r="E57" t="n">
-        <v>1.467410133345592</v>
+        <v>1.477570426773588</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.785150061996195</v>
+        <v>-1.788966271355789</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2164458445388998</v>
+        <v>0.2185550301614427</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3978352512006164</v>
       </c>
       <c r="E58" t="n">
-        <v>1.452529356572815</v>
+        <v>1.463385366452426</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.770263776156494</v>
+        <v>-1.773909991450987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2119709081770419</v>
+        <v>0.2142154594440167</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4521277452353573</v>
       </c>
       <c r="E59" t="n">
-        <v>1.440835968520672</v>
+        <v>1.45214844394546</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.733763059743092</v>
+        <v>-1.737008687171214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.138020341820093</v>
+        <v>0.139931201033352</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5038680932565802</v>
       </c>
       <c r="E60" t="n">
-        <v>1.473862037723803</v>
+        <v>1.486183459405345</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.766142994096929</v>
+        <v>-1.769668796928642</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1178083622834709</v>
+        <v>0.1198136626440079</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5543929492267488</v>
       </c>
       <c r="E61" t="n">
-        <v>1.471567117844947</v>
+        <v>1.484511851098524</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.784511010232947</v>
+        <v>-1.788054914284556</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1301707084621665</v>
+        <v>0.1324640543219016</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6046658396034996</v>
       </c>
       <c r="E62" t="n">
-        <v>1.482391647342132</v>
+        <v>1.496222553361001</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.828365543981066</v>
+        <v>-1.832199854560555</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04265839335609081</v>
+        <v>0.04452360601483213</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6545303050797866</v>
       </c>
       <c r="E63" t="n">
-        <v>1.468982578447771</v>
+        <v>1.483438370057797</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.789273992094003</v>
+        <v>-1.792709288826242</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008401441200102647</v>
+        <v>0.0101281401761695</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7030160055091683</v>
       </c>
       <c r="E64" t="n">
-        <v>1.470523543167525</v>
+        <v>1.485464132666911</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.816797290449067</v>
+        <v>-1.820268789621096</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02186852052163088</v>
+        <v>-0.02021894848250776</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7487175911410063</v>
       </c>
       <c r="E65" t="n">
-        <v>1.48079244391489</v>
+        <v>1.496721517422453</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.842268067869955</v>
+        <v>-1.84574743713759</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02497406024795714</v>
+        <v>-0.02315606816285484</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7899797039974995</v>
       </c>
       <c r="E66" t="n">
-        <v>1.444346031161173</v>
+        <v>1.460084648355058</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.847544179964555</v>
+        <v>-1.850800825526526</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03330691747612298</v>
+        <v>-0.03144170481738166</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8257928779417057</v>
       </c>
       <c r="E67" t="n">
-        <v>1.409926955035691</v>
+        <v>1.426126759832117</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.859332796173536</v>
+        <v>-1.862348616809948</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05237773314980211</v>
+        <v>-0.05055187096909331</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.854897578374592</v>
       </c>
       <c r="E68" t="n">
-        <v>1.359852684729752</v>
+        <v>1.376164244883791</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.889233650411325</v>
+        <v>-1.892012581169981</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05964025737548349</v>
+        <v>-0.05785689371104981</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8758066609862255</v>
       </c>
       <c r="E69" t="n">
-        <v>1.255998903106333</v>
+        <v>1.27160687671315</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.910638736441893</v>
+        <v>-1.913317716986346</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08193151617134382</v>
+        <v>-0.08013713437306104</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.887073823493559</v>
       </c>
       <c r="E70" t="n">
-        <v>1.272570176415386</v>
+        <v>1.288735352791144</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.915824342437018</v>
+        <v>-1.918171991956438</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05070927288122339</v>
+        <v>-0.04860166127780177</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8882190871803652</v>
       </c>
       <c r="E71" t="n">
-        <v>1.265380057069285</v>
+        <v>1.281513753062617</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.950200920046225</v>
+        <v>-1.952173166005215</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07040969620342279</v>
+        <v>-0.06826903019845386</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8788652583185891</v>
       </c>
       <c r="E72" t="n">
-        <v>1.249035442513698</v>
+        <v>1.265200618889456</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.979616189385092</v>
+        <v>-1.981528622617472</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1054536579200613</v>
+        <v>-0.1035333545920745</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8589666843375525</v>
       </c>
       <c r="E73" t="n">
-        <v>1.253864533177849</v>
+        <v>1.270086374241974</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.979358050249199</v>
+        <v>-1.981181551401226</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09276706380237776</v>
+        <v>-0.09073185707853597</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8293016560265568</v>
       </c>
       <c r="E74" t="n">
-        <v>1.248454629457938</v>
+        <v>1.264662304349971</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.987341475232436</v>
+        <v>-1.988913133325054</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0736348613829679</v>
+        <v>-0.07130059102607898</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7910060719201136</v>
       </c>
       <c r="E75" t="n">
-        <v>1.192735926583015</v>
+        <v>1.208302975692679</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.020078711926808</v>
+        <v>-2.021653518057669</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04564722738712037</v>
+        <v>-0.04316972129019309</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7453566694186364</v>
       </c>
       <c r="E76" t="n">
-        <v>1.228151356812281</v>
+        <v>1.243439804537474</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023379430024176</v>
+        <v>-2.024597720824063</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02574690363651578</v>
+        <v>-0.02311986572306493</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6941938911064275</v>
       </c>
       <c r="E77" t="n">
-        <v>1.162761880456086</v>
+        <v>1.176989439293523</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.020883035697793</v>
+        <v>-2.022117853698453</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02737129136969808</v>
+        <v>-0.02486702694770869</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6394500384593336</v>
       </c>
       <c r="E78" t="n">
-        <v>1.182410361147283</v>
+        <v>1.196022478508291</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031493498594481</v>
+        <v>-2.032656698725122</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02220536061358923</v>
+        <v>-0.01977822312854357</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5831086857840935</v>
       </c>
       <c r="E79" t="n">
-        <v>1.168281965514488</v>
+        <v>1.180949671402716</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.008404999113682</v>
+        <v>-2.009708286946119</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04385914166532279</v>
+        <v>-0.04161616441746931</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5269376594335394</v>
       </c>
       <c r="E80" t="n">
-        <v>1.14703428139605</v>
+        <v>1.158209817157285</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970257858699399</v>
+        <v>-1.971307729453306</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02757119179810327</v>
+        <v>-0.02540061942982962</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4715766013163545</v>
       </c>
       <c r="E81" t="n">
-        <v>1.171581109592734</v>
+        <v>1.181827974072402</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923493750605555</v>
+        <v>-1.924316175596435</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.007770031252140619</v>
+        <v>-0.005730102470934928</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4171762271443885</v>
       </c>
       <c r="E82" t="n">
-        <v>1.230247950281853</v>
+        <v>1.239986406585341</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951748180842463</v>
+        <v>-1.953153779917785</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01999094399023961</v>
+        <v>0.02212846195696595</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3637460864908904</v>
       </c>
       <c r="E83" t="n">
-        <v>1.317007884247947</v>
+        <v>1.326066364291033</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846962579899234</v>
+        <v>-1.847955785964775</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01243565220799631</v>
+        <v>0.0142426261592495</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.311741571836711</v>
       </c>
       <c r="E84" t="n">
-        <v>1.311054943931188</v>
+        <v>1.318553571025064</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.7860999825359</v>
+        <v>-1.787220684150266</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02291232347937369</v>
+        <v>0.02458550580531632</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2616240134064445</v>
       </c>
       <c r="E85" t="n">
-        <v>1.419910958322101</v>
+        <v>1.426753219442395</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.758209150716013</v>
+        <v>-1.759867379860303</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01665402345308215</v>
+        <v>0.01799193970618774</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2138719559398373</v>
       </c>
       <c r="E86" t="n">
-        <v>1.664960551202677</v>
+        <v>1.671903549546734</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653745436683089</v>
+        <v>-1.655362741330226</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03249337787073098</v>
+        <v>0.03357630302618585</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1700026158958517</v>
       </c>
       <c r="E87" t="n">
-        <v>1.598960355427418</v>
+        <v>1.603699727001654</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533960220523425</v>
+        <v>-1.535843534402061</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05330033663520477</v>
+        <v>0.05426048829919818</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1324930155503732</v>
       </c>
       <c r="E88" t="n">
-        <v>1.746375116232834</v>
+        <v>1.751075137329038</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334118030825726</v>
+        <v>-1.335665291621964</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08997655618063209</v>
+        <v>0.0909068014813208</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.103776063919045</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913775197821405</v>
+        <v>1.918336705234934</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159101270709181</v>
+        <v>-1.160296738231809</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1136923022812696</v>
+        <v>0.1146178255245944</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08543591629628543</v>
       </c>
       <c r="E90" t="n">
-        <v>1.93459632275797</v>
+        <v>1.938090645207258</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9187233665806253</v>
+        <v>-0.9194513504242268</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1425267585643769</v>
+        <v>0.1434979283622194</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07940660476638275</v>
       </c>
       <c r="E91" t="n">
-        <v>1.972947298648462</v>
+        <v>1.976137835407338</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.666552124185724</v>
+        <v>-0.6668071152833747</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09555330592740043</v>
+        <v>0.09599245726224333</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08726645840286008</v>
       </c>
       <c r="E92" t="n">
-        <v>1.988739432492471</v>
+        <v>1.992227458865274</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4612291999076558</v>
+        <v>-0.4613598434947237</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1068201347976707</v>
+        <v>0.1073820596239751</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.106353422942985</v>
       </c>
       <c r="E93" t="n">
-        <v>1.962140083361611</v>
+        <v>1.965535242606256</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.240550145082178</v>
+        <v>-0.2403880211126841</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09194565410137925</v>
+        <v>0.09231082653752101</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1321801158432364</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849445036333846</v>
+        <v>1.852418358453983</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05746024089248204</v>
+        <v>-0.05720997185219522</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06666848103241151</v>
+        <v>0.06699115495227814</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1571838675162826</v>
       </c>
       <c r="E95" t="n">
-        <v>1.798180807572203</v>
+        <v>1.801039226296486</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0737389749252942</v>
+        <v>0.07381610186223793</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05425419222271298</v>
+        <v>0.05477991460922741</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1756688854040396</v>
       </c>
       <c r="E96" t="n">
-        <v>1.670085557461632</v>
+        <v>1.672630746380775</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1468757733965307</v>
+        <v>0.1467829062683739</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00529882123169854</v>
+        <v>-0.005045404153169129</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1860132635104368</v>
       </c>
       <c r="E97" t="n">
-        <v>1.50435393614164</v>
+        <v>1.506121559614861</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1508989662705752</v>
+        <v>0.1502001017807177</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0205337523067679</v>
+        <v>-0.02028977934296629</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1925430834179822</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390727069794065</v>
+        <v>1.392179889443026</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1789416909356683</v>
+        <v>0.1783530077843018</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05869899394094567</v>
+        <v>-0.05843455872856716</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2000536221310707</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251023428663901</v>
+        <v>1.251897009276223</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1819307532470183</v>
+        <v>0.1812082784703413</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0983579797212378</v>
+        <v>-0.09826668661220236</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2149459324933788</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091828708754671</v>
+        <v>1.092233231668845</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2379579638697163</v>
+        <v>0.2379327795637755</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1455470729778324</v>
+        <v>-0.145712344985569</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2346973763778308</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9099791316325597</v>
+        <v>0.9093510980031607</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2200141458868884</v>
+        <v>0.219823689573211</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1712933037449478</v>
+        <v>-0.1714979262307169</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2642688310161744</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8501144623921306</v>
+        <v>0.8498531752179947</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2582029978078857</v>
+        <v>0.2583005869934064</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.209309013562602</v>
+        <v>-0.2095923370044361</v>
       </c>
     </row>
   </sheetData>
